--- a/backend/data/클리앙.xlsx
+++ b/backend/data/클리앙.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D60"/>
+  <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,17 +458,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>출시 준비중입니다. LTE라우터...</t>
+          <t>오늘부로 얀더나 됐습니다</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021.12.28 15:45</t>
+          <t>2021.12.29 16:38</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -480,17 +480,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>이제 다음은 김종인차례일려나요</t>
+          <t>유치원은 방학... 육아가 너무 힘드네요 ㅎㅎㅎ</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021.12.28 15:44</t>
+          <t>2021.12.29 16:36</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>233</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -502,83 +502,83 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>이준석은 정보처리기사 자격증 공개했네요?</t>
+          <t>있는 죄도 덮어 줄 수 있는 권력</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021.12.28 15:44</t>
+          <t>2021.12.29 16:35</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>325</t>
+          <t>348</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>이재명 후보 아들 입시 특혜의혹에 대한 언론의 태도</t>
+          <t>갤럭시 s20u 액정교체 30만원 ㅠㅠ</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021.12.28 15:44</t>
+          <t>2021.12.29 16:34</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>506</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>수정아,이브날에 뭐해!?!</t>
+          <t>경북 울진에 구름처럼 모인 윤석열 지지 인파</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021.12.28 15:44</t>
+          <t>2021.12.29 16:33</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>1484</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>9</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>빽다방 사라다빵.... 맛이가 부족하네여..</t>
+          <t>주요후보 선거캠프 근황(jpg)</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021.12.28 15:43</t>
+          <t>2021.12.29 16:33</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>780</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -590,39 +590,39 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>3차접종 (아-화-화) 입니다!</t>
+          <t>SNL 신혜선 정말 프로네요 ㄷㄷ.youtube</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021.12.28 15:42</t>
+          <t>2021.12.29 16:33</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>1801</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>세탁기안에 화로 만들기gif</t>
+          <t>尹 영부인 폐지 기사에 올라온 베스트 댓글</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2021.12.28 15:42</t>
+          <t>2021.12.29 16:31</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>808</t>
+          <t>2163</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -634,479 +634,479 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>협조해주셔서감사합니다.gif</t>
+          <t>카드명세서의 비밀.txt</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2021.12.28 15:40</t>
+          <t>2021.12.29 16:30</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>990</t>
+          <t>1587</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>비단 주머니 vs 캐비넷</t>
+          <t>오큘러스 안면폼 잊고 있었는데.. 저는 누락되었나보네요..;</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2021.12.28 15:39</t>
+          <t>2021.12.29 16:30</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>899</t>
+          <t>534</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>11</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>(녹취)김건희... 왜 묻냐... 저는 악마....youtube</t>
+          <t>공유기 설치했습니다.</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2021.12.28 15:38</t>
+          <t>2021.12.29 16:30</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>724</t>
+          <t>719</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>12</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>화재확산차단.gif</t>
+          <t>에어팟으로 인해 세상이 바뀐건 맞다고 생각합니다.</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2021.12.28 15:38</t>
+          <t>2021.12.29 16:30</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>1351</t>
+          <t>1240</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>19</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>토론 마무리 발언을 위해 원고지 찾는 윤석열</t>
+          <t>엄청난 댓글 ㅎㄷㄷ</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2021.12.28 15:38</t>
+          <t>2021.12.29 16:29</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>976</t>
+          <t>2531</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>12</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>용석이 쎄게 나오네요.fb</t>
+          <t>저도 슬로건을 한번 생각해봤는데 어떨까용</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2021.12.28 15:38</t>
+          <t>2021.12.29 16:28</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>1920</t>
+          <t>205</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>볶음밥에 간짜장을 올려주는 집</t>
+          <t>코로나19 확진자, 사망자 일주일 평균선을 겹쳐봤습니다.</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2021.12.28 15:37</t>
+          <t>2021.12.29 16:27</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1183</t>
+          <t>1175</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>설강화로 미개한 대중들이 표현의 자유를 침해한다는 웃기네요ㅋㅋㅋ</t>
+          <t>먀약사범 검거영상, 창문깨는 경찰뒤에서 다른 경찰이 발사하는 아찔상황</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2021.12.28 15:37</t>
+          <t>2021.12.29 16:27</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>375</t>
+          <t>1089</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>우리나라 성인지 예산이 미국 나사 보다 많군요? 퍼몸</t>
+          <t>강용석이 진짜 어이없는 게</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2021.12.28 15:37</t>
+          <t>2021.12.29 16:27</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>867</t>
+          <t>2401</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>12</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>V30 떨어뜨렸습니다.</t>
+          <t>카카오톡에 말대꾸콘 심사 떨어졌다는군요</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2021.12.28 15:36</t>
+          <t>2021.12.29 16:26</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>518</t>
+          <t>1703</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>준석이는 이미 끝난거 같은데요.</t>
+          <t>이거 저만 그런가요?.jpg</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2021.12.28 15:36</t>
+          <t>2021.12.29 16:26</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2125</t>
+          <t>1538</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>동심의팀웤.gif</t>
+          <t>누나랑 손잡고 다녔던 분 있나요?</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2021.12.28 15:35</t>
+          <t>2021.12.29 16:26</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>926</t>
+          <t>1280</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>12</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>눈쌓인 도로의 드리프트 묘기 gif</t>
+          <t>제가 파이썬으로 프로그래밍 독학을 중1 때 시작했는데...</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2021.12.28 15:35</t>
+          <t>2021.12.29 16:25</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>1359</t>
+          <t>1075</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>9</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>겨울철 도로가 얼면 위험합니다.gif</t>
+          <t>독일 사람이 거만한 이유</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2021.12.28 15:34</t>
+          <t>2021.12.29 16:25</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>1875</t>
+          <t>2665</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>10</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>아이큐에어 필터교체 비용 ㄷㄷ</t>
+          <t>'한자' 이야기에 생각을 해 보다 최근 경험에 비추어 결론을 내렸습니다</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2021.12.28 15:34</t>
+          <t>2021.12.29 16:24</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>891</t>
+          <t>251</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>(만화) 8살 연하인 남자에게 고백을 받았는데 어떻게 해야할까?</t>
+          <t>윤석열 '전두환 발언, 민주당 후보였다면 괜찮았을텐데 국민의힘 소속이라...'</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2021.12.28 15:33</t>
+          <t>2021.12.29 16:24</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2192</t>
+          <t>973</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>엠브레인 여론조사 참여했습니다.</t>
+          <t>펌)) 요새 인싸들 유행어 근황 ㄷㄷㄷ</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2021.12.28 15:32</t>
+          <t>2021.12.29 16:22</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>3746</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>갸웃 댕댕이 gif</t>
+          <t>내가 헛되이 보낸 오늘은 어제 죽은 이가 그토록 바라던 내일이다</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2021.12.28 15:32</t>
+          <t>2021.12.29 16:22</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>969</t>
+          <t>410</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>어제 한 중국집에서 본 진상 아줌마...</t>
+          <t>저쪽이 홍준표만 냈어도 이번 대선 모르는 일이었다는 것이...</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2021.12.28 15:32</t>
+          <t>2021.12.29 16:21</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2181</t>
+          <t>1569</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>16</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>윤석열 이준석 한짤정리?</t>
+          <t>[KBO] 히어로즈 원년팬이었는데 이제 탈퇴합니다</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2021.12.28 15:32</t>
+          <t>2021.12.29 16:20</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>2177</t>
+          <t>897</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>집사보다 잘생긴 고니 얼굴샷</t>
+          <t>슬로건 선정 방식에 대한 추측</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2021.12.28 15:32</t>
+          <t>2021.12.29 16:19</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>1145</t>
+          <t>285</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>윤석열과의 토론도 중요하긴 합니다만</t>
+          <t>윈도우 11 클린설치 중입니다…</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2021.12.28 15:32</t>
+          <t>2021.12.29 16:17</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>763</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1118,281 +1118,281 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>윤석렬이 영부인이란 말을 싫어 할만합니다.</t>
+          <t>연합) '다이어트 성공' 김정은, 살 더 빠졌나..셔츠 목둘레도 헐렁</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2021.12.28 15:31</t>
+          <t>2021.12.29 16:17</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>661</t>
+          <t>2275</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>탕수육과 볶음밥</t>
+          <t>여자친구와의 대화에서 다른 여자 외모 칭찬은 금기 맞죠?</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2021.12.28 15:31</t>
+          <t>2021.12.29 16:17</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>740</t>
+          <t>1609</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>26</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>애플이 여러 사람에게 원수진 듯하네요.</t>
+          <t>한자 좋아하시는 분이라면 재미있을 사이트.jpg</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2021.12.28 15:31</t>
+          <t>2021.12.29 16:16</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>854</t>
+          <t>1613</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>올해 의류 구매비용 총 얼마정도 되세요?</t>
+          <t>돈룩업 이동진 별점과 한줄 평.jpg</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2021.12.28 15:30</t>
+          <t>2021.12.29 16:16</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>344</t>
+          <t>3295</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>근데 이준석 날리는거 너무 프로의 냄새가 나는데요.</t>
+          <t>홍준표의 팩폭 반박불가네요 ㅎㅎ</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2021.12.28 15:30</t>
+          <t>2021.12.29 16:16</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>1929</t>
+          <t>3328</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>[단독]이준석 '김건희 사과 후 尹 지지율 하락세 둔화, 반등 올 것'</t>
+          <t>김학의 출국금지시킨 이규원 검사 기소에 즈음하여</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2021.12.28 15:30</t>
+          <t>2021.12.29 16:15</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>2557</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>김경수 지사님에게 영치금 보내고 왔습니다.</t>
+          <t>딴지) 준스톤 나비효과</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2021.12.28 15:28</t>
+          <t>2021.12.29 16:15</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>1288</t>
+          <t>3210</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>유잼도시를 위한 대전의 노력.jpg</t>
+          <t>'허위경력 의혹' 김건희 사건…고발인 '전형적 사기죄' [뉴시스]</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2021.12.28 15:28</t>
+          <t>2021.12.29 16:14</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>1856</t>
+          <t>940</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>우리 준석이 살리는 방법 생각났습니다.(뻘글)</t>
+          <t>나비효과 레젼드 랍니다 ㅎㅎ</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2021.12.28 15:26</t>
+          <t>2021.12.29 16:14</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>1247</t>
+          <t>1993</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>준스톤 정치인생의 최대 선택의 기로에 있군요.</t>
+          <t>국민의짐 윤리위원회 자기들 당대표 성상납의혹 조사 가능한가요? ㅋㅋㅋ</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2021.12.28 15:25</t>
+          <t>2021.12.29 16:13</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>1585</t>
+          <t>614</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>속보] 5년 차 이상 민방위 대원 비상소집훈련 폐지</t>
+          <t>킹메이커가 연기되었군요 ㅜㅜ</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2021.12.28 15:25</t>
+          <t>2021.12.29 16:13</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>3748</t>
+          <t>1100</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>진보 스피커들이 한때 이준석 당대표를 그렇게 띄웠는데..</t>
+          <t>아빠가 10살 딸에게 프로그래밍 언어를 가르치는데 c언어부터 가르치던데 왜 그런건가</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2021.12.28 15:24</t>
+          <t>2021.12.29 16:12</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>1042</t>
+          <t>2612</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>38</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>유애나 4기 활동 종료 얼마 안남았네요 ㅠㅠ</t>
+          <t>‘실력 중심 실용 정부’</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2021.12.28 15:23</t>
+          <t>2021.12.29 16:11</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>684</t>
+          <t>1151</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1404,352 +1404,44 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>이준석 제1야당대표출신 현역이등병 가나요?</t>
+          <t>쿠팡 멤버십 가격 인상되면</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2021.12.28 15:22</t>
+          <t>2021.12.29 16:11</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>1320</t>
+          <t>2037</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>사실 이준석은 정치기반 없는 신인이죠</t>
+          <t>[우리가 언론사다][공포] 우리는.. 개돼지가 되는 건가요?</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2021.12.28 15:21</t>
+          <t>2021.12.29 16:10</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>714</t>
+          <t>645</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>이런 혼종도 가능하군요</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:21</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>1800</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>거니는 8500만원도 떼먹고 있었네요</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:21</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>1451</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>중국에 선전시가 그렇게 근미래도시라고 하는데요</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:21</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>2467</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>아들에게 잔인한 아버지</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:20</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>2650</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>이준석이 고소한다는군요</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:20</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>4155</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>1 day 1 I believe</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:19</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>839</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
           <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>퇴근하고 소주 한잔하고 싶읍니다</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:19</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>950</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>'영부인, 선진국에서도 안 쓰는 호칭'.... 아...나 참....</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:19</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>2509</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>최근 굳이 척척석사를 비판한 이유</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:19</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>1339</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>이준석 탄핵한다고 이야기 나온게 보름 전이죠</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:18</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>619</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>디시 보수갤러리 부관리자 또 런..</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:17</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>2236</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>어제 집앞에서 usb를 하나 주웠는데..</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:17</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>1811</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>갑자기 구글포토가 보여준 애들 편지..</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:16</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>1613</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>착한냥냥.gif</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:16</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>1333</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>5</t>
         </is>
       </c>
     </row>

--- a/backend/data/클리앙.xlsx
+++ b/backend/data/클리앙.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D46"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,17 +458,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>오늘부로 얀더나 됐습니다</t>
+          <t>송영길 페이스북</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021.12.29 16:38</t>
+          <t>2021.12.29 18:34</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -480,17 +480,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>유치원은 방학... 육아가 너무 힘드네요 ㅎㅎㅎ</t>
+          <t>호주 코로나 드디어 망했습니다.....젠장</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021.12.29 16:36</t>
+          <t>2021.12.29 18:33</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>289</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -502,721 +502,721 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>있는 죄도 덮어 줄 수 있는 권력</t>
+          <t>애들 양육비.</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021.12.29 16:35</t>
+          <t>2021.12.29 18:33</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>348</t>
+          <t>85</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>갤럭시 s20u 액정교체 30만원 ㅠㅠ</t>
+          <t>배우 신민아 취약계층 아동 위해 3억 기부</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021.12.29 16:34</t>
+          <t>2021.12.29 18:32</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>506</t>
+          <t>376</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>경북 울진에 구름처럼 모인 윤석열 지지 인파</t>
+          <t>지지율 떨어지니까 공격적으로 나오는 듯 하네요.</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021.12.29 16:33</t>
+          <t>2021.12.29 18:31</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1484</t>
+          <t>571</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>주요후보 선거캠프 근황(jpg)</t>
+          <t>뉴에그에서 Nzxt H1케이스 149달러에 파네요.</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021.12.29 16:33</t>
+          <t>2021.12.29 18:31</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>780</t>
+          <t>214</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>SNL 신혜선 정말 프로네요 ㄷㄷ.youtube</t>
+          <t>정치인 군부대 방문의 레전설</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021.12.29 16:33</t>
+          <t>2021.12.29 18:31</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1801</t>
+          <t>383</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>尹 영부인 폐지 기사에 올라온 베스트 댓글</t>
+          <t>혹시 세컨서울이라고 가상부동산 신청하신분 계신가요 ㅋㅋ</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2021.12.29 16:31</t>
+          <t>2021.12.29 18:30</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2163</t>
+          <t>307</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>카드명세서의 비밀.txt</t>
+          <t>윤이 후보 사퇴할 일은 결코 없을 듯 하네요.;;;;</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2021.12.29 16:30</t>
+          <t>2021.12.29 18:29</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1587</t>
+          <t>551</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>오큘러스 안면폼 잊고 있었는데.. 저는 누락되었나보네요..;</t>
+          <t>석열이성,,, 오늘 원전 가서 뭔 짓 했댜? ㅎ</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2021.12.29 16:30</t>
+          <t>2021.12.29 18:28</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>534</t>
+          <t>1677</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>공유기 설치했습니다.</t>
+          <t>게 인지 뭔지 그건 과학적으로 공식적으로 객관성 인증 된건가요?</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2021.12.29 16:30</t>
+          <t>2021.12.29 18:26</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>719</t>
+          <t>266</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>에어팟으로 인해 세상이 바뀐건 맞다고 생각합니다.</t>
+          <t>마우스 커서가 잘 보이지 않아 욜로마우스를 스팀에서 샀거든요...</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2021.12.29 16:30</t>
+          <t>2021.12.29 18:25</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>1240</t>
+          <t>275</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>엄청난 댓글 ㅎㄷㄷ</t>
+          <t>클최미 조각집 앨범 나왔네요!</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2021.12.29 16:29</t>
+          <t>2021.12.29 18:25</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2531</t>
+          <t>286</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>저도 슬로건을 한번 생각해봤는데 어떨까용</t>
+          <t>여론조사M 5주차 집계가 나왔네요. + 김동연 후보</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2021.12.29 16:28</t>
+          <t>2021.12.29 18:24</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>1669</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>코로나19 확진자, 사망자 일주일 평균선을 겹쳐봤습니다.</t>
+          <t>제가 눈물 흘리게 좋아라 하는 음악하나 입니다.</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2021.12.29 16:27</t>
+          <t>2021.12.29 18:23</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1175</t>
+          <t>553</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>먀약사범 검거영상, 창문깨는 경찰뒤에서 다른 경찰이 발사하는 아찔상황</t>
+          <t>국민의 힘은 수어사이드 스쿼드 군요</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2021.12.29 16:27</t>
+          <t>2021.12.29 18:22</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1089</t>
+          <t>914</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>강용석이 진짜 어이없는 게</t>
+          <t>주호영 발언 참 저렴하네요</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2021.12.29 16:27</t>
+          <t>2021.12.29 18:22</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2401</t>
+          <t>971</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>카카오톡에 말대꾸콘 심사 떨어졌다는군요</t>
+          <t>이재명 아들 입학비리!!</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2021.12.29 16:26</t>
+          <t>2021.12.29 18:22</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1703</t>
+          <t>2061</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>이거 저만 그런가요?.jpg</t>
+          <t>'범죄 - 범죄자 프레임' 전략의 변화?</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2021.12.29 16:26</t>
+          <t>2021.12.29 18:22</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1538</t>
+          <t>421</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>누나랑 손잡고 다녔던 분 있나요?</t>
+          <t>아 대형면허 너무 아깝네요ㅠㅠ</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2021.12.29 16:26</t>
+          <t>2021.12.29 18:21</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1280</t>
+          <t>758</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>10</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>제가 파이썬으로 프로그래밍 독학을 중1 때 시작했는데...</t>
+          <t>책상을 정리했는데, 방이 좁으니 그닥 개운하진 않군요</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2021.12.29 16:25</t>
+          <t>2021.12.29 18:19</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>1075</t>
+          <t>760</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>13</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>독일 사람이 거만한 이유</t>
+          <t>아이유 조각집 애플뮤직 떴습니다.</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2021.12.29 16:25</t>
+          <t>2021.12.29 18:19</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2665</t>
+          <t>954</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>13</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>'한자' 이야기에 생각을 해 보다 최근 경험에 비추어 결론을 내렸습니다</t>
+          <t>부스터샷접종 완료</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2021.12.29 16:24</t>
+          <t>2021.12.29 18:19</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>264</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>윤석열 '전두환 발언, 민주당 후보였다면 괜찮았을텐데 국민의힘 소속이라...'</t>
+          <t>윤석열 정부내각 예상도</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2021.12.29 16:24</t>
+          <t>2021.12.29 18:17</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>973</t>
+          <t>1989</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>펌)) 요새 인싸들 유행어 근황 ㄷㄷㄷ</t>
+          <t>윤석열 '공수처, 독재시절 하던 짓..대통령되면 책임 묻겠다'</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2021.12.29 16:22</t>
+          <t>2021.12.29 18:15</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>3746</t>
+          <t>2120</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>21</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>내가 헛되이 보낸 오늘은 어제 죽은 이가 그토록 바라던 내일이다</t>
+          <t>용인술이란 게 쉽지 않군요.</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2021.12.29 16:22</t>
+          <t>2021.12.29 18:14</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>410</t>
+          <t>775</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>11</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>저쪽이 홍준표만 냈어도 이번 대선 모르는 일이었다는 것이...</t>
+          <t>이준석은 윤석렬 덫에 걸린듯</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2021.12.29 16:21</t>
+          <t>2021.12.29 18:14</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>1569</t>
+          <t>2778</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>[KBO] 히어로즈 원년팬이었는데 이제 탈퇴합니다</t>
+          <t>연돈 볼카츠 맛나네영</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2021.12.29 16:20</t>
+          <t>2021.12.29 18:14</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>897</t>
+          <t>2136</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>13</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>슬로건 선정 방식에 대한 추측</t>
+          <t>만28세 실비+암보험</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2021.12.29 16:19</t>
+          <t>2021.12.29 18:13</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>285</t>
+          <t>1016</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>9</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>윈도우 11 클린설치 중입니다…</t>
+          <t>내년엔 머리 심어야겠습니다..</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2021.12.29 16:17</t>
+          <t>2021.12.29 18:13</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>763</t>
+          <t>747</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>연합) '다이어트 성공' 김정은, 살 더 빠졌나..셔츠 목둘레도 헐렁</t>
+          <t>권나라 이뻐요.</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2021.12.29 16:17</t>
+          <t>2021.12.29 18:11</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>2275</t>
+          <t>2749</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>15</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>여자친구와의 대화에서 다른 여자 외모 칭찬은 금기 맞죠?</t>
+          <t>베트남-하노이... 코로나가 심각해지는 것 같습니다.</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2021.12.29 16:17</t>
+          <t>2021.12.29 18:11</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>1609</t>
+          <t>1784</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>한자 좋아하시는 분이라면 재미있을 사이트.jpg</t>
+          <t>국힘 '윤석열 비방 조직적 댓글 징후'..내일 회견서 공개</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2021.12.29 16:16</t>
+          <t>2021.12.29 18:10</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>1613</t>
+          <t>2313</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>18</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>돈룩업 이동진 별점과 한줄 평.jpg</t>
+          <t>후보교체? 6주 남았네요</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2021.12.29 16:16</t>
+          <t>2021.12.29 18:10</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>3295</t>
+          <t>945</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>홍준표의 팩폭 반박불가네요 ㅎㅎ</t>
+          <t>이제 책임질 시간입니다. feat.박주민 의원실</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2021.12.29 16:16</t>
+          <t>2021.12.29 18:08</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>3328</t>
+          <t>1873</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1228,220 +1228,66 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>김학의 출국금지시킨 이규원 검사 기소에 즈음하여</t>
+          <t>군무의_나라.gif</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2021.12.29 16:15</t>
+          <t>2021.12.29 18:08</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2764</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>딴지) 준스톤 나비효과</t>
+          <t>호빵이 로켓프레시가 되네요...</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2021.12.29 16:15</t>
+          <t>2021.12.29 18:07</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>3210</t>
+          <t>1821</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>18</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>'허위경력 의혹' 김건희 사건…고발인 '전형적 사기죄' [뉴시스]</t>
+          <t>고요한 바다는 연기 연출이 너무 좀 그러네요</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2021.12.29 16:14</t>
+          <t>2021.12.29 18:05</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>940</t>
+          <t>872</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>나비효과 레젼드 랍니다 ㅎㅎ</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>2021.12.29 16:14</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>1993</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>국민의짐 윤리위원회 자기들 당대표 성상납의혹 조사 가능한가요? ㅋㅋㅋ</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>2021.12.29 16:13</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>614</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>킹메이커가 연기되었군요 ㅜㅜ</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>2021.12.29 16:13</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>1100</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>아빠가 10살 딸에게 프로그래밍 언어를 가르치는데 c언어부터 가르치던데 왜 그런건가</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>2021.12.29 16:12</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>2612</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>38</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>‘실력 중심 실용 정부’</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>2021.12.29 16:11</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>1151</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>쿠팡 멤버십 가격 인상되면</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>2021.12.29 16:11</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>2037</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>[우리가 언론사다][공포] 우리는.. 개돼지가 되는 건가요?</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>2021.12.29 16:10</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>645</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>1</t>
+          <t>8</t>
         </is>
       </c>
     </row>

--- a/backend/data/클리앙.xlsx
+++ b/backend/data/클리앙.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:D53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,17 +458,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>송영길 페이스북</t>
+          <t>도대체 제 윈도우는 정체가 뭘까요...</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021.12.29 18:34</t>
+          <t>2021.12.29 19:01</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>131</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -480,17 +480,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>호주 코로나 드디어 망했습니다.....젠장</t>
+          <t>우리딸이 아빠는 누구의 아빠보단 착하답니다.</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021.12.29 18:33</t>
+          <t>2021.12.29 19:01</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>289</t>
+          <t>199</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -502,105 +502,105 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>애들 양육비.</t>
+          <t>선거 행사에서 검사시절 썰풀듯이 자살 이야기를..</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021.12.29 18:33</t>
+          <t>2021.12.29 19:00</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>300</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>배우 신민아 취약계층 아동 위해 3억 기부</t>
+          <t>경선을 그딴 방식으로 이겨서</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021.12.29 18:32</t>
+          <t>2021.12.29 19:00</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>376</t>
+          <t>171</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>지지율 떨어지니까 공격적으로 나오는 듯 하네요.</t>
+          <t>[서울신문-갤럽] 잼 36.8% 윤 30.8%</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021.12.29 18:31</t>
+          <t>2021.12.29 18:59</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>571</t>
+          <t>815</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>10</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>뉴에그에서 Nzxt H1케이스 149달러에 파네요.</t>
+          <t>와... NFT? 이거 진짜 골치아프네요</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021.12.29 18:31</t>
+          <t>2021.12.29 18:58</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>688</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>정치인 군부대 방문의 레전설</t>
+          <t>'나를 위해 이재명' 저는 참 좋네요.</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021.12.29 18:31</t>
+          <t>2021.12.29 18:58</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>383</t>
+          <t>198</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -612,83 +612,83 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>혹시 세컨서울이라고 가상부동산 신청하신분 계신가요 ㅋㅋ</t>
+          <t>백신 아아아(트리플AZ)는 불가라, 아아모 vs 아아화 고민되네요</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2021.12.29 18:30</t>
+          <t>2021.12.29 18:58</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>307</t>
+          <t>70</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>윤이 후보 사퇴할 일은 결코 없을 듯 하네요.;;;;</t>
+          <t>애들 해줄려고 짜파게티를 샀는데..</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2021.12.29 18:29</t>
+          <t>2021.12.29 18:58</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>551</t>
+          <t>495</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>석열이성,,, 오늘 원전 가서 뭔 짓 했댜? ㅎ</t>
+          <t>대마왕을 물리치는 방법.manhwa</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2021.12.29 18:28</t>
+          <t>2021.12.29 18:57</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1677</t>
+          <t>524</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>게 인지 뭔지 그건 과학적으로 공식적으로 객관성 인증 된건가요?</t>
+          <t>OPPO Find X4 Pro 렌더링 이미지</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2021.12.29 18:26</t>
+          <t>2021.12.29 18:57</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>324</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -700,83 +700,83 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>마우스 커서가 잘 보이지 않아 욜로마우스를 스팀에서 샀거든요...</t>
+          <t>오늘도 귀한 말씀을 전파하시네요</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2021.12.29 18:25</t>
+          <t>2021.12.29 18:55</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>752</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>클최미 조각집 앨범 나왔네요!</t>
+          <t>윤석열,,, 오늘 이 발언 정말 쎄네요.....</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2021.12.29 18:25</t>
+          <t>2021.12.29 18:54</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>2335</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>여론조사M 5주차 집계가 나왔네요. + 김동연 후보</t>
+          <t>홍가혜씨 요청으로 올립니다.</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2021.12.29 18:24</t>
+          <t>2021.12.29 18:54</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>1669</t>
+          <t>1414</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>제가 눈물 흘리게 좋아라 하는 음악하나 입니다.</t>
+          <t>검찰 : 대한민국의 21세기 하나회</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2021.12.29 18:23</t>
+          <t>2021.12.29 18:52</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>553</t>
+          <t>643</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -788,369 +788,369 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>국민의 힘은 수어사이드 스쿼드 군요</t>
+          <t>Dell 이 발표한 2022년의 Seamless Work Experienxes 영상</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2021.12.29 18:22</t>
+          <t>2021.12.29 18:51</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>914</t>
+          <t>625</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>주호영 발언 참 저렴하네요</t>
+          <t>살면 살수록 공허합니다</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2021.12.29 18:22</t>
+          <t>2021.12.29 18:51</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>971</t>
+          <t>857</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>17</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>이재명 아들 입학비리!!</t>
+          <t>벼르다가 테넷을 감상했습니다.</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2021.12.29 18:22</t>
+          <t>2021.12.29 18:50</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2061</t>
+          <t>605</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>'범죄 - 범죄자 프레임' 전략의 변화?</t>
+          <t>중고거래에서 역시나 싶은건 역시나네요.</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2021.12.29 18:22</t>
+          <t>2021.12.29 18:50</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>421</t>
+          <t>533</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>아 대형면허 너무 아깝네요ㅠㅠ</t>
+          <t>악질적인 가짜뉴스 유툽</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2021.12.29 18:21</t>
+          <t>2021.12.29 18:49</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>758</t>
+          <t>533</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>책상을 정리했는데, 방이 좁으니 그닥 개운하진 않군요</t>
+          <t>지금 전세계가 탈원전 재생에너지 전환인데</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2021.12.29 18:19</t>
+          <t>2021.12.29 18:49</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>760</t>
+          <t>603</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>아이유 조각집 애플뮤직 떴습니다.</t>
+          <t>레노버 씽크패드 Z13/Z16 모델 렌더링 이미지</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2021.12.29 18:19</t>
+          <t>2021.12.29 18:49</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>954</t>
+          <t>792</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>부스터샷접종 완료</t>
+          <t>게임에서 내로남불을 느낀적이</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2021.12.29 18:19</t>
+          <t>2021.12.29 18:48</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>840</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>윤석열 정부내각 예상도</t>
+          <t>저쪽 사법리스크는 결국 소멸됩니다.</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2021.12.29 18:17</t>
+          <t>2021.12.29 18:48</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>1989</t>
+          <t>934</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>윤석열 '공수처, 독재시절 하던 짓..대통령되면 책임 묻겠다'</t>
+          <t>디즈니 플러스에 설강화 올라왔네요 ㄷㄷㄷ</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2021.12.29 18:15</t>
+          <t>2021.12.29 18:48</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2120</t>
+          <t>1641</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>9</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>용인술이란 게 쉽지 않군요.</t>
+          <t>??: 이놈아 어디서 버린 기타를 줏어왔니!</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2021.12.29 18:14</t>
+          <t>2021.12.29 18:47</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>775</t>
+          <t>1032</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>이준석은 윤석렬 덫에 걸린듯</t>
+          <t>에어팟 3세대 vs 에어팟 프로</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2021.12.29 18:14</t>
+          <t>2021.12.29 18:46</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2778</t>
+          <t>496</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>연돈 볼카츠 맛나네영</t>
+          <t>박근혜 탄핵될 때, 윤석열 후보 교체될 때</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2021.12.29 18:14</t>
+          <t>2021.12.29 18:46</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>2136</t>
+          <t>711</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>만28세 실비+암보험</t>
+          <t>윤석열, 검찰 수사 과정 중 자살 관련 발언</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2021.12.29 18:13</t>
+          <t>2021.12.29 18:45</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>1016</t>
+          <t>2233</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>11</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>내년엔 머리 심어야겠습니다..</t>
+          <t>요상한 NAS가 있군요 ㅋㅋ</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2021.12.29 18:13</t>
+          <t>2021.12.29 18:45</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>747</t>
+          <t>1414</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>권나라 이뻐요.</t>
+          <t>윤석열, 검찰 수사 과정 중 자살 관련 발언</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2021.12.29 18:11</t>
+          <t>2021.12.29 18:45</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>2749</t>
+          <t>2235</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>11</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>베트남-하노이... 코로나가 심각해지는 것 같습니다.</t>
+          <t>요상한 NAS가 있군요 ㅋㅋ</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2021.12.29 18:11</t>
+          <t>2021.12.29 18:45</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>1784</t>
+          <t>1416</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1162,61 +1162,61 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>국힘 '윤석열 비방 조직적 댓글 징후'..내일 회견서 공개</t>
+          <t>시장에 아이패드 씨가 말랐나요??</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2021.12.29 18:10</t>
+          <t>2021.12.29 18:44</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>2313</t>
+          <t>910</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>후보교체? 6주 남았네요</t>
+          <t>윤석열 “수사하다 자살하는건 초조해서”</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2021.12.29 18:10</t>
+          <t>2021.12.29 18:44</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>945</t>
+          <t>2773</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>20</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>이제 책임질 시간입니다. feat.박주민 의원실</t>
+          <t>추미애 관련 신조어 모음</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2021.12.29 18:08</t>
+          <t>2021.12.29 18:43</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>1873</t>
+          <t>583</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1228,66 +1228,374 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>군무의_나라.gif</t>
+          <t>방금 발매된 아이유 &lt;조각집&gt; 앨범 소개글.txt</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2021.12.29 18:08</t>
+          <t>2021.12.29 18:41</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>2764</t>
+          <t>942</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>호빵이 로켓프레시가 되네요...</t>
+          <t>묘하게 윤XX 닮으셨네요...</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2021.12.29 18:07</t>
+          <t>2021.12.29 18:41</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>1821</t>
+          <t>1791</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>9</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>고요한 바다는 연기 연출이 너무 좀 그러네요</t>
+          <t>유아 보육 원장과 교사, 가족등 8천명 이재명 지지 선언</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2021.12.29 18:05</t>
+          <t>2021.12.29 18:41</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>872</t>
+          <t>1521</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>📝이재명 아들 의혹…與 팩트체크에 野 8시간만 철회</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>2021.12.29 18:40</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>2153</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>와인은 어느 순서로 마시나요</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>2021.12.29 18:39</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>825</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
           <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>클리앙여려분 윤석렬 귀한 줄 아셔야 합니다.</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>2021.12.29 18:39</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>832</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>슬로건 이건 어떨까요?</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>2021.12.29 18:38</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>447</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>[대구소식] 3차순환도로 완전개통 예정.jpg</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>2021.12.29 18:38</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>1539</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>포털의 뉴스 페이지 정정보도</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>2021.12.29 18:37</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>445</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>찡하게 오네요 스팸전화</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>2021.12.29 18:37</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>352</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>apple은 모바일 it업체가 아니죠</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>2021.12.29 18:37</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>936</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>제 기준 스마트워치 쓰는 이유</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>2021.12.29 18:37</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>1145</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>형수욕설 사건 웹툰형식 정리.jpg</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>2021.12.29 18:36</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>2767</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>윤석열의 힘</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>2021.12.29 18:35</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>1394</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>배달 자주드시면 토스프라임도 괜찮네요..</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>2021.12.29 18:35</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>974</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>송영길 페이스북</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>2021.12.29 18:34</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>2370</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>호주 코로나 드디어 망했습니다.....젠장</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>2021.12.29 18:33</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>3724</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>

--- a/backend/data/클리앙.xlsx
+++ b/backend/data/클리앙.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D53"/>
+  <dimension ref="A1:D56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,17 +458,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>도대체 제 윈도우는 정체가 뭘까요...</t>
+          <t>추미애의 예언</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021.12.29 19:01</t>
+          <t>2021.12.29 23:04</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>167</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -480,17 +480,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>우리딸이 아빠는 누구의 아빠보단 착하답니다.</t>
+          <t>[락 좋아하세요?] I Love Rock N' Roll - Joan Jett &amp; The Blackhearts</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021.12.29 19:01</t>
+          <t>2021.12.29 23:04</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -502,413 +502,413 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>선거 행사에서 검사시절 썰풀듯이 자살 이야기를..</t>
+          <t>아시는 분은 아시겠지만 제가.....</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021.12.29 19:00</t>
+          <t>2021.12.29 23:04</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>108</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>경선을 그딴 방식으로 이겨서</t>
+          <t>프랑스 30대 이상은 화이자 접종이 안되는군요</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021.12.29 19:00</t>
+          <t>2021.12.29 23:04</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>219</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>[서울신문-갤럽] 잼 36.8% 윤 30.8%</t>
+          <t>피검사 받았는데 모든 수치가 정상.</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021.12.29 18:59</t>
+          <t>2021.12.29 23:04</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>815</t>
+          <t>91</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>와... NFT? 이거 진짜 골치아프네요</t>
+          <t>돈룩업, 와.....종합세트군요.</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021.12.29 18:58</t>
+          <t>2021.12.29 23:03</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>688</t>
+          <t>222</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>'나를 위해 이재명' 저는 참 좋네요.</t>
+          <t>독해진 윤석열 '독재 정부는 경제 살렸는데 이 정부 뭐했나'</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021.12.29 18:58</t>
+          <t>2021.12.29 23:03</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>238</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>백신 아아아(트리플AZ)는 불가라, 아아모 vs 아아화 고민되네요</t>
+          <t>'도리도리'에 'PC방 간 아들'까지…돌아온 정치 풍자 / JTBC 뉴스룸</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2021.12.29 18:58</t>
+          <t>2021.12.29 23:03</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>288</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>애들 해줄려고 짜파게티를 샀는데..</t>
+          <t>독도방어훈련에 또 딴지거는 일본</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2021.12.29 18:58</t>
+          <t>2021.12.29 23:03</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>495</t>
+          <t>227</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>대마왕을 물리치는 방법.manhwa</t>
+          <t>오늘 공주대에서 마지막에 하신 말씀.gif</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2021.12.29 18:57</t>
+          <t>2021.12.29 23:02</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>524</t>
+          <t>600</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>OPPO Find X4 Pro 렌더링 이미지</t>
+          <t>[YTN] "이재명 42.4% vs 윤석열 34.9%"...후보 교체 여론 ↑</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2021.12.29 18:57</t>
+          <t>2021.12.29 23:02</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>324</t>
+          <t>764</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>오늘도 귀한 말씀을 전파하시네요</t>
+          <t>MBC 올해의 예능인상 박나래..</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2021.12.29 18:55</t>
+          <t>2021.12.29 23:01</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>752</t>
+          <t>597</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>윤석열,,, 오늘 이 발언 정말 쎄네요.....</t>
+          <t>[영상] 바닥에 누워 있는 코끼리 가족</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2021.12.29 18:54</t>
+          <t>2021.12.29 23:01</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2335</t>
+          <t>181</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>홍가혜씨 요청으로 올립니다.</t>
+          <t>데일리 재즈 223 - All By Myself</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2021.12.29 18:54</t>
+          <t>2021.12.29 23:01</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>1414</t>
+          <t>53</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>검찰 : 대한민국의 21세기 하나회</t>
+          <t>1인용 전기밥솥이 있었군요.</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2021.12.29 18:52</t>
+          <t>2021.12.29 23:00</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>643</t>
+          <t>617</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Dell 이 발표한 2022년의 Seamless Work Experienxes 영상</t>
+          <t>혜성충돌 방어를 위한 아이디어는..</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2021.12.29 18:51</t>
+          <t>2021.12.29 23:00</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>625</t>
+          <t>204</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>살면 살수록 공허합니다</t>
+          <t>검찰 개혁이란 말을 처음 한 사람이</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2021.12.29 18:51</t>
+          <t>2021.12.29 22:59</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>857</t>
+          <t>492</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>벼르다가 테넷을 감상했습니다.</t>
+          <t>XBOX Series S 하위호환 성능에 대해서...</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2021.12.29 18:50</t>
+          <t>2021.12.29 22:59</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>605</t>
+          <t>430</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>중고거래에서 역시나 싶은건 역시나네요.</t>
+          <t>화이자 모더리안이 되었습니다~</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2021.12.29 18:50</t>
+          <t>2021.12.29 22:59</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>533</t>
+          <t>301</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>악질적인 가짜뉴스 유툽</t>
+          <t>파인다이닝에서 쓰는 소스들 가격이 비싼 물건이군요 ㄷㄷㄷ</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2021.12.29 18:49</t>
+          <t>2021.12.29 22:58</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>533</t>
+          <t>528</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>지금 전세계가 탈원전 재생에너지 전환인데</t>
+          <t>국힘의원 70여명 통신자료 조회했다고 분기탱천하는 거 참 꼴사납습디다.</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2021.12.29 18:49</t>
+          <t>2021.12.29 22:57</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>603</t>
+          <t>698</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -920,633 +920,633 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>레노버 씽크패드 Z13/Z16 모델 렌더링 이미지</t>
+          <t>북한 주사이론 배운 집단 국민약탈..대선 필요없고 정권 내놓고 물러가는게 정답.gisa</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2021.12.29 18:49</t>
+          <t>2021.12.29 22:57</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>792</t>
+          <t>370</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>게임에서 내로남불을 느낀적이</t>
+          <t>한문철 레전드 또 갱신.mp4</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2021.12.29 18:48</t>
+          <t>2021.12.29 22:57</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>840</t>
+          <t>1504</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>저쪽 사법리스크는 결국 소멸됩니다.</t>
+          <t>친한 여후배가 보수 언론지 중 한 곳 기자가 되었었는데...</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2021.12.29 18:48</t>
+          <t>2021.12.29 22:56</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>934</t>
+          <t>1788</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>22</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>디즈니 플러스에 설강화 올라왔네요 ㄷㄷㄷ</t>
+          <t>스타벅스 새해 MD 갯수가 20개 넘네요.</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2021.12.29 18:48</t>
+          <t>2021.12.29 22:55</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>1641</t>
+          <t>1047</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>11</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>??: 이놈아 어디서 버린 기타를 줏어왔니!</t>
+          <t>이런 중요한 뉴스를 끼워팔기 식으로 처리하다니요..</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2021.12.29 18:47</t>
+          <t>2021.12.29 22:52</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>1032</t>
+          <t>1068</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>에어팟 3세대 vs 에어팟 프로</t>
+          <t>검찰 국힘 언론 한 몸인 걸 보니 예전 **조선 부패 사건기억나네요.</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2021.12.29 18:46</t>
+          <t>2021.12.29 22:52</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>496</t>
+          <t>423</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>박근혜 탄핵될 때, 윤석열 후보 교체될 때</t>
+          <t>박근혜 사면을 정치적 판단으로 보지 않는 이유</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2021.12.29 18:46</t>
+          <t>2021.12.29 22:51</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>711</t>
+          <t>1091</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>윤석열, 검찰 수사 과정 중 자살 관련 발언</t>
+          <t>걍 힘들 때 혼자 항상 되뇌이는 말은..</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2021.12.29 18:45</t>
+          <t>2021.12.29 22:50</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>2233</t>
+          <t>410</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>요상한 NAS가 있군요 ㅋㅋ</t>
+          <t>냉동피자도 생각보다 먹을만 하더라구요.</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2021.12.29 18:45</t>
+          <t>2021.12.29 22:50</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>1414</t>
+          <t>837</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>13</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>윤석열, 검찰 수사 과정 중 자살 관련 발언</t>
+          <t>다이소 c to 8핀 안써야 겠어요..(불날뻔)</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2021.12.29 18:45</t>
+          <t>2021.12.29 22:50</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>2235</t>
+          <t>1070</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>요상한 NAS가 있군요 ㅋㅋ</t>
+          <t>내일 저희집 레오 무지개다리 건너기로 했습니다</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2021.12.29 18:45</t>
+          <t>2021.12.29 22:50</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>1416</t>
+          <t>1958</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>25</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>시장에 아이패드 씨가 말랐나요??</t>
+          <t>나혼렙이 완결이군요</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2021.12.29 18:44</t>
+          <t>2021.12.29 22:49</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>910</t>
+          <t>1651</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>윤석열 “수사하다 자살하는건 초조해서”</t>
+          <t>대한민국 국민 대부분이 들고있는 NFT…jpg</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2021.12.29 18:44</t>
+          <t>2021.12.29 22:48</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>2773</t>
+          <t>2319</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>추미애 관련 신조어 모음</t>
+          <t>외국의 명품 광고가 연속으로나오네요..</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2021.12.29 18:43</t>
+          <t>2021.12.29 22:48</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>583</t>
+          <t>678</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>방금 발매된 아이유 &lt;조각집&gt; 앨범 소개글.txt</t>
+          <t>현 시각 백업 데이터를 포함한 모든 서버 데이터가 날아간 게임.jpg</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2021.12.29 18:41</t>
+          <t>2021.12.29 22:47</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>942</t>
+          <t>1225</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>묘하게 윤XX 닮으셨네요...</t>
+          <t>만평-거니사태간단정리</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2021.12.29 18:41</t>
+          <t>2021.12.29 22:47</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>1791</t>
+          <t>1189</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>유아 보육 원장과 교사, 가족등 8천명 이재명 지지 선언</t>
+          <t>화웨이 스마트 전기차 AITO, 주문량 6000대를 돌파</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2021.12.29 18:41</t>
+          <t>2021.12.29 22:46</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>1521</t>
+          <t>1064</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>9</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>📝이재명 아들 의혹…與 팩트체크에 野 8시간만 철회</t>
+          <t>[No jtbc] Diana Krall - A Case Of You</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2021.12.29 18:40</t>
+          <t>2021.12.29 22:45</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>2153</t>
+          <t>135</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>와인은 어느 순서로 마시나요</t>
+          <t>엑시스는 뭐랄까 계륵같습니다.</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2021.12.29 18:39</t>
+          <t>2021.12.29 22:45</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>825</t>
+          <t>671</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>클리앙여려분 윤석렬 귀한 줄 아셔야 합니다.</t>
+          <t>진석사는 장동민 처럼 상대 해주면 됩니다</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2021.12.29 18:39</t>
+          <t>2021.12.29 22:45</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>832</t>
+          <t>2340</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>슬로건 이건 어떨까요?</t>
+          <t>트럼프 흉내내는 개썩열</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2021.12.29 18:38</t>
+          <t>2021.12.29 22:44</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>447</t>
+          <t>1509</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>[대구소식] 3차순환도로 완전개통 예정.jpg</t>
+          <t>KBS 수신료 52% 인상안 방통위 통과... 공은 국회로</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2021.12.29 18:38</t>
+          <t>2021.12.29 22:44</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>1539</t>
+          <t>2180</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>18</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>포털의 뉴스 페이지 정정보도</t>
+          <t>갤럭시 S22 기본형 모델은 사이즈가 작나보네요</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2021.12.29 18:37</t>
+          <t>2021.12.29 22:43</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>445</t>
+          <t>1398</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>11</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>찡하게 오네요 스팸전화</t>
+          <t>종전선언하면 떡이 나오고 밥이 나오는데..가만히 있으면 중간이라도 가지..</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2021.12.29 18:37</t>
+          <t>2021.12.29 22:43</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>352</t>
+          <t>930</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>apple은 모바일 it업체가 아니죠</t>
+          <t>골목식당 파이널 시작하네요</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2021.12.29 18:37</t>
+          <t>2021.12.29 22:42</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>936</t>
+          <t>815</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>제 기준 스마트워치 쓰는 이유</t>
+          <t>70년대 호텔에서는 햄버거 팔았다고 하던데요</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2021.12.29 18:37</t>
+          <t>2021.12.29 22:42</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>1145</t>
+          <t>1462</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>형수욕설 사건 웹툰형식 정리.jpg</t>
+          <t>쉭한도시남자 오늘 저녁</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2021.12.29 18:36</t>
+          <t>2021.12.29 22:41</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>2767</t>
+          <t>559</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>윤석열의 힘</t>
+          <t>펨코발 윤석열 최신 망언 '그것이 알고싶다'</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2021.12.29 18:35</t>
+          <t>2021.12.29 22:41</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>1394</t>
+          <t>3250</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>11</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>배달 자주드시면 토스프라임도 괜찮네요..</t>
+          <t>윤석열, “삼류 바보들 데려다가 나라 망쳤다' '대선도 필요없다'</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2021.12.29 18:35</t>
+          <t>2021.12.29 22:40</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>974</t>
+          <t>2532</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1558,44 +1558,110 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>송영길 페이스북</t>
+          <t>화이자 부스터 맞은지 12시간인데 무난하네요!</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2021.12.29 18:34</t>
+          <t>2021.12.29 22:39</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>2370</t>
+          <t>379</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>14</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>호주 코로나 드디어 망했습니다.....젠장</t>
+          <t>[여론M] 보고 오니 기분이 편안하지만 고개 들지 않겠습니다...</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2021.12.29 18:33</t>
+          <t>2021.12.29 22:39</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>3724</t>
+          <t>947</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
           <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>채널A 사람 불러 놓고 흑역사 영상이라고</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>2021.12.29 22:38</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>1881</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>특정언론들이 이재명후보 씨리얼 출연 취소된거 반발하네요 ㅋㅋ</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>2021.12.29 22:37</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>2146</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>그럼,..너는 뭐했나?</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>2021.12.29 22:37</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>1561</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
     </row>

--- a/backend/data/클리앙.xlsx
+++ b/backend/data/클리앙.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D56"/>
+  <dimension ref="A1:D55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,17 +458,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>추미애의 예언</t>
+          <t>이마트 안의 a스토어에서 1월 1일 아이폰12 전기종 30% 한다더라구요.</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021.12.29 23:04</t>
+          <t>2021.12.30 17:35</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>167</t>
+          <t>56</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -480,105 +480,105 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>[락 좋아하세요?] I Love Rock N' Roll - Joan Jett &amp; The Blackhearts</t>
+          <t>박제 : gktfldkd(gktfldkd)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021.12.29 23:04</t>
+          <t>2021.12.30 17:34</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>105</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>아시는 분은 아시겠지만 제가.....</t>
+          <t>jtbc 다른 커뮤니티에도 공문 보내고 있네요</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021.12.29 23:04</t>
+          <t>2021.12.30 17:32</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>108</t>
+          <t>794</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>프랑스 30대 이상은 화이자 접종이 안되는군요</t>
+          <t>캡쳐보드 evga xr1을 구입헀습니다.</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021.12.29 23:04</t>
+          <t>2021.12.30 17:32</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>135</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>피검사 받았는데 모든 수치가 정상.</t>
+          <t>결국 85인치 티비 질렀네요 ㅎ</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021.12.29 23:04</t>
+          <t>2021.12.30 17:32</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>805</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>돈룩업, 와.....종합세트군요.</t>
+          <t>정권 교체는 필연입니다.</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021.12.29 23:03</t>
+          <t>2021.12.30 17:32</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>384</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -590,61 +590,61 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>독해진 윤석열 '독재 정부는 경제 살렸는데 이 정부 뭐했나'</t>
+          <t>부산 홈플러스 급발진 의심? 사고</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021.12.29 23:03</t>
+          <t>2021.12.30 17:31</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>680</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>'도리도리'에 'PC방 간 아들'까지…돌아온 정치 풍자 / JTBC 뉴스룸</t>
+          <t>LG전자에서 물 없는 세탁기 개발 중인가봐요</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2021.12.29 23:03</t>
+          <t>2021.12.30 17:31</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>778</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>독도방어훈련에 또 딴지거는 일본</t>
+          <t>이순신의 바다를 구매한지 어언 보름이 되어 가는데..TXT</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2021.12.29 23:03</t>
+          <t>2021.12.30 17:31</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>302</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -656,193 +656,193 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>오늘 공주대에서 마지막에 하신 말씀.gif</t>
+          <t>지금 잔뜩 화가 나 있는 이유</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2021.12.29 23:02</t>
+          <t>2021.12.30 17:30</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>600</t>
+          <t>936</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>[YTN] "이재명 42.4% vs 윤석열 34.9%"...후보 교체 여론 ↑</t>
+          <t>[사진] 어느 가족의 7년 크리스마스 기념사진</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2021.12.29 23:02</t>
+          <t>2021.12.30 17:30</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>764</t>
+          <t>737</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>MBC 올해의 예능인상 박나래..</t>
+          <t>5층 주차장에서 택시가 도로로 추락</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2021.12.29 23:01</t>
+          <t>2021.12.30 17:30</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>597</t>
+          <t>437</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>[영상] 바닥에 누워 있는 코끼리 가족</t>
+          <t>같은해에 태어난 양대산맥</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2021.12.29 23:01</t>
+          <t>2021.12.30 17:30</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>1070</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>데일리 재즈 223 - All By Myself</t>
+          <t>괜히 전화해서 물어보고 싶네요.</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2021.12.29 23:01</t>
+          <t>2021.12.30 17:29</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>267</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>1인용 전기밥솥이 있었군요.</t>
+          <t>Jtbc는 뭘 근거로 시청자들을 협박하는 거죠?</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2021.12.29 23:00</t>
+          <t>2021.12.30 17:28</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>617</t>
+          <t>992</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>혜성충돌 방어를 위한 아이디어는..</t>
+          <t>이제는 국민에 대한 협박이 일상이군요.. jtbc, 그후보님, 그당, ㅋㅋ</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2021.12.29 23:00</t>
+          <t>2021.12.30 17:28</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>564</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>검찰 개혁이란 말을 처음 한 사람이</t>
+          <t>NO JTBC, 설강화.. 처음으로 들어가봤습니다.</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2021.12.29 22:59</t>
+          <t>2021.12.30 17:27</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>492</t>
+          <t>755</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>XBOX Series S 하위호환 성능에 대해서...</t>
+          <t>설강화...따악 '망하는 SI 프로젝트' 보는 기분이네요...</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2021.12.29 22:59</t>
+          <t>2021.12.30 17:27</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>430</t>
+          <t>873</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -854,193 +854,193 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>화이자 모더리안이 되었습니다~</t>
+          <t>거리두기 강화하면 확실히 확진자가 주네요</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2021.12.29 22:59</t>
+          <t>2021.12.30 17:26</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>301</t>
+          <t>601</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>파인다이닝에서 쓰는 소스들 가격이 비싼 물건이군요 ㄷㄷㄷ</t>
+          <t>재밌네요...</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2021.12.29 22:58</t>
+          <t>2021.12.30 17:26</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>528</t>
+          <t>436</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>국힘의원 70여명 통신자료 조회했다고 분기탱천하는 거 참 꼴사납습디다.</t>
+          <t>내년 1월 1일 해돋이 보러가는 사람들도 분명 많겠죠?</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2021.12.29 22:57</t>
+          <t>2021.12.30 17:26</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>698</t>
+          <t>280</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>북한 주사이론 배운 집단 국민약탈..대선 필요없고 정권 내놓고 물러가는게 정답.gisa</t>
+          <t>안철수는 지금 꿈속을 걸을 듯요ㅋㅋㅋ</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2021.12.29 22:57</t>
+          <t>2021.12.30 17:25</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>370</t>
+          <t>1238</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>한문철 레전드 또 갱신.mp4</t>
+          <t>ㅃㅃ에 고든램지버거 인증 올라왔네요 ㄷㄷㄷ</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2021.12.29 22:57</t>
+          <t>2021.12.30 17:24</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>1504</t>
+          <t>1760</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>친한 여후배가 보수 언론지 중 한 곳 기자가 되었었는데...</t>
+          <t>채용하는 입장이 되어보니 20/30 남자분들 분노가 납득이 가네요.</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2021.12.29 22:56</t>
+          <t>2021.12.30 17:23</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>1788</t>
+          <t>1892</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>16</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>스타벅스 새해 MD 갯수가 20개 넘네요.</t>
+          <t>어느 남고생의 고민</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2021.12.29 22:55</t>
+          <t>2021.12.30 17:23</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>1047</t>
+          <t>1700</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>이런 중요한 뉴스를 끼워팔기 식으로 처리하다니요..</t>
+          <t>유엔사무총장 출신 국민의당 반기문 vs 검찰출신 국민의힘 윤석열 싱크로율 100%</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2021.12.29 22:52</t>
+          <t>2021.12.30 17:21</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>1068</t>
+          <t>1024</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>검찰 국힘 언론 한 몸인 걸 보니 예전 **조선 부패 사건기억나네요.</t>
+          <t>줄리의 정원 그리고 뮤즈</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2021.12.29 22:52</t>
+          <t>2021.12.30 17:21</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>423</t>
+          <t>810</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1052,17 +1052,17 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>박근혜 사면을 정치적 판단으로 보지 않는 이유</t>
+          <t>하다하다 안되니 사찰로 프레임 전환</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2021.12.29 22:51</t>
+          <t>2021.12.30 17:20</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>1091</t>
+          <t>960</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1074,592 +1074,570 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>걍 힘들 때 혼자 항상 되뇌이는 말은..</t>
+          <t>[나눔 완료] 스벅 프리퀀시 빨강 2개 나눔할게요.</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2021.12.29 22:50</t>
+          <t>2021.12.30 17:19</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>410</t>
+          <t>251</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>9</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>냉동피자도 생각보다 먹을만 하더라구요.</t>
+          <t>시민단체 '성매매 의혹' 이준석 검찰에 고발</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2021.12.29 22:50</t>
+          <t>2021.12.30 17:19</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>837</t>
+          <t>2617</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>23</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>다이소 c to 8핀 안써야 겠어요..(불날뻔)</t>
+          <t>올해도 스벅 프리퀸시 나눔 프로 수집러가?!</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2021.12.29 22:50</t>
+          <t>2021.12.30 17:17</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>1070</t>
+          <t>499</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>내일 저희집 레오 무지개다리 건너기로 했습니다</t>
+          <t>오늘 3차 접종 하였습니다.</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2021.12.29 22:50</t>
+          <t>2021.12.30 17:16</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>1958</t>
+          <t>245</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>나혼렙이 완결이군요</t>
+          <t>윤석열의 폭주, 내심 웃는 민주당</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2021.12.29 22:49</t>
+          <t>2021.12.30 17:16</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>1651</t>
+          <t>2748</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>대한민국 국민 대부분이 들고있는 NFT…jpg</t>
+          <t>운전자가 겨울에 보면 좋은 유튜브 영상...</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2021.12.29 22:48</t>
+          <t>2021.12.30 17:16</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>2319</t>
+          <t>768</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>외국의 명품 광고가 연속으로나오네요..</t>
+          <t>이재명 유튜브 Shorts 근황.</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2021.12.29 22:48</t>
+          <t>2021.12.30 17:16</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>678</t>
+          <t>1642</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>현 시각 백업 데이터를 포함한 모든 서버 데이터가 날아간 게임.jpg</t>
+          <t>클최미가 어제 발표한 '겨울잠' 완전 제 취향입니다.</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2021.12.29 22:47</t>
+          <t>2021.12.30 17:15</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>1225</t>
+          <t>707</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>만평-거니사태간단정리</t>
+          <t>매일유업은 경쟁사 복은 타고 난듯</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2021.12.29 22:47</t>
+          <t>2021.12.30 17:14</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>1189</t>
+          <t>2313</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>화웨이 스마트 전기차 AITO, 주문량 6000대를 돌파</t>
+          <t>남학생이 학점이 안나오는 이유</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2021.12.29 22:46</t>
+          <t>2021.12.30 17:14</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>1064</t>
+          <t>2741</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>12</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>[No jtbc] Diana Krall - A Case Of You</t>
+          <t>오늘 휴가이신 분들 많으시겠네요..</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2021.12.29 22:45</t>
+          <t>2021.12.30 17:14</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>495</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>엑시스는 뭐랄까 계륵같습니다.</t>
+          <t>펌 막내 신입이 회식이 처음이란다</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2021.12.29 22:45</t>
+          <t>2021.12.30 17:13</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>671</t>
+          <t>3334</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>19</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>진석사는 장동민 처럼 상대 해주면 됩니다</t>
+          <t>김칫국 마시는 펨코vs엠팍</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2021.12.29 22:45</t>
+          <t>2021.12.30 17:13</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>2340</t>
+          <t>1718</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>트럼프 흉내내는 개썩열</t>
+          <t>배추무우 된장국이 생각나는 저녁입니다..</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2021.12.29 22:44</t>
+          <t>2021.12.30 17:13</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>1509</t>
+          <t>520</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>KBS 수신료 52% 인상안 방통위 통과... 공은 국회로</t>
+          <t>설강화 입장문..ㄷㄷㄷ</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2021.12.29 22:44</t>
+          <t>2021.12.30 17:12</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>2180</t>
+          <t>2372</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>갤럭시 S22 기본형 모델은 사이즈가 작나보네요</t>
+          <t>'실손보험으로 코 성형 공짜'.news</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2021.12.29 22:43</t>
+          <t>2021.12.30 17:12</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>1398</t>
+          <t>1735</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>종전선언하면 떡이 나오고 밥이 나오는데..가만히 있으면 중간이라도 가지..</t>
+          <t>이걸 실물로 볼줄은 몰랐네요..</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2021.12.29 22:43</t>
+          <t>2021.12.30 17:11</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>930</t>
+          <t>3043</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>12</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>골목식당 파이널 시작하네요</t>
+          <t>..기자님 창작' 조작 인터뷰 주장에 동아일보 기사 삭제</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2021.12.29 22:42</t>
+          <t>2021.12.30 17:11</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>815</t>
+          <t>938</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>70년대 호텔에서는 햄버거 팔았다고 하던데요</t>
+          <t>카페에서 샌드위치 포장하면서 일회용 포크 좀 달라고 했는데</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2021.12.29 22:42</t>
+          <t>2021.12.30 17:10</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>1462</t>
+          <t>1051</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>쉭한도시남자 오늘 저녁</t>
+          <t>웹툰 '마법사랑해' 를 아시나요?(추천)</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2021.12.29 22:41</t>
+          <t>2021.12.30 17:09</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>559</t>
+          <t>809</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>14</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>펨코발 윤석열 최신 망언 '그것이 알고싶다'</t>
+          <t>설강화 선동당한거 맞죠</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2021.12.29 22:41</t>
+          <t>2021.12.30 17:09</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>3250</t>
+          <t>2555</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>윤석열, “삼류 바보들 데려다가 나라 망쳤다' '대선도 필요없다'</t>
+          <t>이재명 中 불법 영해침범 어로행위 무관용 강경조치 필요</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2021.12.29 22:40</t>
+          <t>2021.12.30 17:08</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>2532</t>
+          <t>1707</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>화이자 부스터 맞은지 12시간인데 무난하네요!</t>
+          <t>JTBC가 억울한 부분을 정리해 봤습니다</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2021.12.29 22:39</t>
+          <t>2021.12.30 17:08</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>379</t>
+          <t>1321</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>[여론M] 보고 오니 기분이 편안하지만 고개 들지 않겠습니다...</t>
+          <t>윤석열 검찰 통신조회도 공수처 통신조회도 문재인정권 책임이라는 사람이 있군요.</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2021.12.29 22:39</t>
+          <t>2021.12.30 17:08</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>947</t>
+          <t>823</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>채널A 사람 불러 놓고 흑역사 영상이라고</t>
+          <t>대선 사상 첫 사건--지지층 윤석열 교체요구 70%/통신 사찰의 왕 석열</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2021.12.29 22:38</t>
+          <t>2021.12.30 17:08</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>1881</t>
+          <t>1429</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>특정언론들이 이재명후보 씨리얼 출연 취소된거 반발하네요 ㅋㅋ</t>
+          <t>쓸데 없는 거 추가 합니다.</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2021.12.29 22:37</t>
+          <t>2021.12.30 17:07</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>2146</t>
+          <t>766</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>그럼,..너는 뭐했나?</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>2021.12.29 22:37</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>1561</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
         <is>
           <t>2</t>
         </is>

--- a/backend/data/클리앙.xlsx
+++ b/backend/data/클리앙.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D55"/>
+  <dimension ref="A1:D59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,17 +458,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>이마트 안의 a스토어에서 1월 1일 아이폰12 전기종 30% 한다더라구요.</t>
+          <t>국민의힘 김민전 “이대남, 학점 안 나와서 불만 쌓인 듯”.gisaaa</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021.12.30 17:35</t>
+          <t>2021.12.30 18:05</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>70</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -480,127 +480,127 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>박제 : gktfldkd(gktfldkd)</t>
+          <t>이재명 후보, 지키는 국익에 비하면 2~300억은 얼마 안되는데</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021.12.30 17:34</t>
+          <t>2021.12.30 18:05</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>103</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>jtbc 다른 커뮤니티에도 공문 보내고 있네요</t>
+          <t>설강화는 제일 중요한 한가지를 납득시키지 못하고 있습니다..</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021.12.30 17:32</t>
+          <t>2021.12.30 18:03</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>794</t>
+          <t>256</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>캡쳐보드 evga xr1을 구입헀습니다.</t>
+          <t>동남아 가고싶어요~~~~~~</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021.12.30 17:32</t>
+          <t>2021.12.30 18:03</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>198</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>결국 85인치 티비 질렀네요 ㅎ</t>
+          <t>오늘 3차 접종했어요</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021.12.30 17:32</t>
+          <t>2021.12.30 18:03</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>805</t>
+          <t>125</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>정권 교체는 필연입니다.</t>
+          <t>와.... 당뇨라는데. 뭘 먹어야하는거져??</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021.12.30 17:32</t>
+          <t>2021.12.30 18:03</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>384</t>
+          <t>369</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>부산 홈플러스 급발진 의심? 사고</t>
+          <t>JTBx의 설양화를 비판합니다.</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021.12.30 17:31</t>
+          <t>2021.12.30 18:03</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>680</t>
+          <t>154</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -612,655 +612,655 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LG전자에서 물 없는 세탁기 개발 중인가봐요</t>
+          <t>설강화 선동했던 내용과 다른다고 썼다고 박제까지 당하고</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2021.12.30 17:31</t>
+          <t>2021.12.30 18:01</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>778</t>
+          <t>489</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>이순신의 바다를 구매한지 어언 보름이 되어 가는데..TXT</t>
+          <t>최근에 두근두근 설렐거 같은 분이군요.</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2021.12.30 17:31</t>
+          <t>2021.12.30 18:01</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>302</t>
+          <t>490</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>지금 잔뜩 화가 나 있는 이유</t>
+          <t>설강화 사태 보고 문득 든 생각인데</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2021.12.30 17:30</t>
+          <t>2021.12.30 18:00</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>936</t>
+          <t>307</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>[사진] 어느 가족의 7년 크리스마스 기념사진</t>
+          <t>쉭한도시남자 오늘 한 잔</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2021.12.30 17:30</t>
+          <t>2021.12.30 17:59</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>737</t>
+          <t>388</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>5층 주차장에서 택시가 도로로 추락</t>
+          <t>한국에선 못먹는 한국 짜장라면</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2021.12.30 17:30</t>
+          <t>2021.12.30 17:58</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>437</t>
+          <t>1901</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>같은해에 태어난 양대산맥</t>
+          <t>눈 치우는 로봇청소기.youtube</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2021.12.30 17:30</t>
+          <t>2021.12.30 17:58</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>1070</t>
+          <t>543</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>괜히 전화해서 물어보고 싶네요.</t>
+          <t>2010년생(초등5) 1월 11일부터 백신접종 가능합니다</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2021.12.30 17:29</t>
+          <t>2021.12.30 17:57</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>458</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Jtbc는 뭘 근거로 시청자들을 협박하는 거죠?</t>
+          <t>고개숙인 여러분들을 위해 음악 하나 준비했읍니다.</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2021.12.30 17:28</t>
+          <t>2021.12.30 17:57</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>992</t>
+          <t>162</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>이제는 국민에 대한 협박이 일상이군요.. jtbc, 그후보님, 그당, ㅋㅋ</t>
+          <t>뽀로로와 타요 의 다른점…</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2021.12.30 17:28</t>
+          <t>2021.12.30 17:57</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>564</t>
+          <t>452</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>NO JTBC, 설강화.. 처음으로 들어가봤습니다.</t>
+          <t>남학생학점 술 탓한 국힘사람이 안철수와 합당위한 가교역할이란 분석이 있네요</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2021.12.30 17:27</t>
+          <t>2021.12.30 17:56</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>755</t>
+          <t>708</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>설강화...따악 '망하는 SI 프로젝트' 보는 기분이네요...</t>
+          <t>롱패딩의 위험성.jpg</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2021.12.30 17:27</t>
+          <t>2021.12.30 17:55</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>873</t>
+          <t>3352</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>16</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>거리두기 강화하면 확실히 확진자가 주네요</t>
+          <t>콘솔 게임은 확실히 TV 가 그래픽이 훨 좋아보이는 착각이..</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2021.12.30 17:26</t>
+          <t>2021.12.30 17:55</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>601</t>
+          <t>910</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>14</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>재밌네요...</t>
+          <t>후보 교체 수순으로 가는 것 같은데요...</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2021.12.30 17:26</t>
+          <t>2021.12.30 17:55</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>436</t>
+          <t>1858</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>내년 1월 1일 해돋이 보러가는 사람들도 분명 많겠죠?</t>
+          <t>jtbc가 한 커뮤니티 운영자에게 보낸 메일 이라는 이름의 협박장이랍니다.</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2021.12.30 17:26</t>
+          <t>2021.12.30 17:55</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>1262</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>9</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>안철수는 지금 꿈속을 걸을 듯요ㅋㅋㅋ</t>
+          <t>안철수로 단일화는 안 될 겁니다.</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2021.12.30 17:25</t>
+          <t>2021.12.30 17:55</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>1238</t>
+          <t>491</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>ㅃㅃ에 고든램지버거 인증 올라왔네요 ㄷㄷㄷ</t>
+          <t>넷플릭스영화 돈룩업은 클리앙에 던지는 영화인가요?</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2021.12.30 17:24</t>
+          <t>2021.12.30 17:55</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>1760</t>
+          <t>416</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>채용하는 입장이 되어보니 20/30 남자분들 분노가 납득이 가네요.</t>
+          <t>초등학생 5학년 수학문제 문의</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2021.12.30 17:23</t>
+          <t>2021.12.30 17:54</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>1892</t>
+          <t>759</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>22</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>어느 남고생의 고민</t>
+          <t>'김건희 채용은 공채'..고민정 '윤석열, 허위사실 남발했다'</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2021.12.30 17:23</t>
+          <t>2021.12.30 17:53</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>1700</t>
+          <t>1404</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>유엔사무총장 출신 국민의당 반기문 vs 검찰출신 국민의힘 윤석열 싱크로율 100%</t>
+          <t>그 힘든걸 jtbc가 또 해냅니다~</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2021.12.30 17:21</t>
+          <t>2021.12.30 17:53</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>1024</t>
+          <t>1793</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>줄리의 정원 그리고 뮤즈</t>
+          <t>윤석열의 경제지식 수준</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2021.12.30 17:21</t>
+          <t>2021.12.30 17:53</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>810</t>
+          <t>1372</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>하다하다 안되니 사찰로 프레임 전환</t>
+          <t>그러고 보니 어제는 이재명후보가 유시민전장관님 비슷해 보이더군요.</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2021.12.30 17:20</t>
+          <t>2021.12.30 17:52</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>960</t>
+          <t>474</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>[나눔 완료] 스벅 프리퀀시 빨강 2개 나눔할게요.</t>
+          <t>애를 낳으면 어때? 힘들지?</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2021.12.30 17:19</t>
+          <t>2021.12.30 17:52</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>737</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>시민단체 '성매매 의혹' 이준석 검찰에 고발</t>
+          <t>카누 커피의 사은품 스텐머그..</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2021.12.30 17:19</t>
+          <t>2021.12.30 17:52</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>2617</t>
+          <t>1536</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>올해도 스벅 프리퀸시 나눔 프로 수집러가?!</t>
+          <t>대구버스는 가다 멈추는 게 신기했죠.</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2021.12.30 17:17</t>
+          <t>2021.12.30 17:52</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>499</t>
+          <t>836</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>15</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>오늘 3차 접종 하였습니다.</t>
+          <t>카톡, PASS 1월 3일 부터 시행되는 기간제 대응됐네요.</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2021.12.30 17:16</t>
+          <t>2021.12.30 17:51</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>908</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>윤석열의 폭주, 내심 웃는 민주당</t>
+          <t>즐거운 잭스패로우와 ㅊㅈ들.gif</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2021.12.30 17:16</t>
+          <t>2021.12.30 17:51</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>2748</t>
+          <t>2307</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>운전자가 겨울에 보면 좋은 유튜브 영상...</t>
+          <t>설강화는 방심위에 지랄해야죠</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2021.12.30 17:16</t>
+          <t>2021.12.30 17:51</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>768</t>
+          <t>662</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>이재명 유튜브 Shorts 근황.</t>
+          <t>시드니 하버브릿지 올라갔다 내려오기</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2021.12.30 17:16</t>
+          <t>2021.12.30 17:49</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>1642</t>
+          <t>1020</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>13</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>클최미가 어제 발표한 '겨울잠' 완전 제 취향입니다.</t>
+          <t>2년 전 윤석열 처벌 청원 기억하시나요?</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2021.12.30 17:15</t>
+          <t>2021.12.30 17:48</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>707</t>
+          <t>843</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>매일유업은 경쟁사 복은 타고 난듯</t>
+          <t>다들 표심 정하셨나용..</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2021.12.30 17:14</t>
+          <t>2021.12.30 17:48</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>2313</t>
+          <t>406</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1272,374 +1272,462 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>남학생이 학점이 안나오는 이유</t>
+          <t>부스트샷 맞은지 일주일짼데 아직도 심장이 불편하네쇼.</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2021.12.30 17:14</t>
+          <t>2021.12.30 17:48</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>2741</t>
+          <t>474</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>오늘 휴가이신 분들 많으시겠네요..</t>
+          <t>대구 동성로 상황(feat. 우리공화당)</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2021.12.30 17:14</t>
+          <t>2021.12.30 17:47</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>495</t>
+          <t>1651</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>펌 막내 신입이 회식이 처음이란다</t>
+          <t>동원 즉석식품이 종류가 많더군요</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2021.12.30 17:13</t>
+          <t>2021.12.30 17:46</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>3334</t>
+          <t>886</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>김칫국 마시는 펨코vs엠팍</t>
+          <t>문통지지율도 골든크로스 가능할지도...</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2021.12.30 17:13</t>
+          <t>2021.12.30 17:46</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>1718</t>
+          <t>2508</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>12</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>배추무우 된장국이 생각나는 저녁입니다..</t>
+          <t>JTBC의 뿌리</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2021.12.30 17:13</t>
+          <t>2021.12.30 17:45</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>520</t>
+          <t>1132</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>설강화 입장문..ㄷㄷㄷ</t>
+          <t>유니클로 최근 5년 실적 추이.jpg</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2021.12.30 17:12</t>
+          <t>2021.12.30 17:44</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>2372</t>
+          <t>3057</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>21</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>'실손보험으로 코 성형 공짜'.news</t>
+          <t>형이 마장동에서 일하니...</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2021.12.30 17:12</t>
+          <t>2021.12.30 17:43</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>1735</t>
+          <t>3181</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>19</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>이걸 실물로 볼줄은 몰랐네요..</t>
+          <t>공수처장도 참 개념이 없네요.</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2021.12.30 17:11</t>
+          <t>2021.12.30 17:43</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>3043</t>
+          <t>2350</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>9</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>..기자님 창작' 조작 인터뷰 주장에 동아일보 기사 삭제</t>
+          <t>윤석열은 이제 진짜 끝났습니다</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2021.12.30 17:11</t>
+          <t>2021.12.30 17:42</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>938</t>
+          <t>5050</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>31</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>카페에서 샌드위치 포장하면서 일회용 포크 좀 달라고 했는데</t>
+          <t>일상에서 마시다라는 표현을 잘 안쓰게 되는군요</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2021.12.30 17:10</t>
+          <t>2021.12.30 17:41</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>1051</t>
+          <t>785</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>9</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>웹툰 '마법사랑해' 를 아시나요?(추천)</t>
+          <t>국민의힘, '성 접대 의혹' 이준석 징계 심의....</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2021.12.30 17:09</t>
+          <t>2021.12.30 17:41</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>809</t>
+          <t>2128</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>9</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>설강화 선동당한거 맞죠</t>
+          <t>실손보험 인상률 및 ‘보험료 이원화’ 등 관련 보도된 내용은 사실이 아닙니다</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2021.12.30 17:09</t>
+          <t>2021.12.30 17:40</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>2555</t>
+          <t>653</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>이재명 中 불법 영해침범 어로행위 무관용 강경조치 필요</t>
+          <t>가세연 동영상은 별거 없을듯..</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2021.12.30 17:08</t>
+          <t>2021.12.30 17:40</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>1707</t>
+          <t>895</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>JTBC가 억울한 부분을 정리해 봤습니다</t>
+          <t>화타도 못 고치는 병..에 걸린 그분이 생각나네요</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2021.12.30 17:08</t>
+          <t>2021.12.30 17:40</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>1321</t>
+          <t>930</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>윤석열 검찰 통신조회도 공수처 통신조회도 문재인정권 책임이라는 사람이 있군요.</t>
+          <t>요즘 핫한 어플이래서 깔아봤습니다!!</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2021.12.30 17:08</t>
+          <t>2021.12.30 17:40</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>823</t>
+          <t>1328</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>대선 사상 첫 사건--지지층 윤석열 교체요구 70%/통신 사찰의 왕 석열</t>
+          <t>설강화같은 사례가 있나요</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2021.12.30 17:08</t>
+          <t>2021.12.30 17:39</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>1429</t>
+          <t>739</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>쓸데 없는 거 추가 합니다.</t>
+          <t>권성동이 했던 이야기는 동훈이가 했던 말로 바로 격파됩니다.</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2021.12.30 17:07</t>
+          <t>2021.12.30 17:38</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>766</t>
+          <t>1530</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>'이준석 우리가 지켜야..성접대 의혹 밝혀 달라' 청원 등장</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:38</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>1370</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>택시하면 대구에서 이걸 뺄 수가 없죠.</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:38</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>1877</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>여러분 토요일에 MBC 옷소매 붉은 끝동 봐주세요 ㅋㅋ</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:38</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>1596</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>이런 햄버거는 먹기 참 힘들어요</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:37</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>1687</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>8</t>
         </is>
       </c>
     </row>
